--- a/docs/shr-core-Specimen.xlsx
+++ b/docs/shr-core-Specimen.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="322">
   <si>
     <t>Path</t>
   </si>
@@ -566,6 +566,10 @@
     <t>Specimen.accessionIdentifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AccessionIdentifier]]} {[]}
+</t>
+  </si>
+  <si>
     <t>Identifier assigned by the lab</t>
   </si>
   <si>
@@ -750,7 +754,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -765,64 +769,24 @@
     <t>Specimen.collection.bodySite.extension</t>
   </si>
   <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>locationqualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing the side(s) of interest.</t>
-  </si>
-  <si>
-    <t>anatomicaldirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AnatomicalDirection-extension]]} {[]}
+    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing directionality.</t>
-  </si>
-  <si>
-    <t>clockdirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ClockDirection-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A direction indicated by an angle relative to 12 o'clock.</t>
-  </si>
-  <si>
-    <t>commentordescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommentOrDescription-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t>attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Attachment-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A file that contains audio, video, image, or similar content.</t>
-  </si>
-  <si>
-    <t>distancefromlandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DistanceFromLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>An anatomical landmark that helps determine a body location.</t>
   </si>
   <si>
     <t>Specimen.collection.bodySite.coding</t>
@@ -1198,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM64"/>
+  <dimension ref="A1:AM60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1208,7 +1172,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.62109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.72265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1231,7 +1195,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.3515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -3886,13 +3850,13 @@
         <v>48</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3954,18 +3918,18 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3988,13 +3952,13 @@
         <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4056,18 +4020,18 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4090,13 +4054,13 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4158,18 +4122,18 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4271,7 +4235,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4375,11 +4339,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4404,7 +4368,7 @@
         <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>66</v>
@@ -4479,7 +4443,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4502,13 +4466,13 @@
         <v>48</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4570,18 +4534,18 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4604,13 +4568,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4672,18 +4636,18 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4706,13 +4670,13 @@
         <v>48</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4774,18 +4738,18 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4808,13 +4772,13 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4876,18 +4840,18 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4913,10 +4877,10 @@
         <v>153</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4946,10 +4910,10 @@
         <v>93</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -4978,18 +4942,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5015,13 +4979,13 @@
         <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5047,11 +5011,11 @@
         <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>39</v>
@@ -5080,18 +5044,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5193,7 +5157,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5295,10 +5259,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>39</v>
@@ -5308,7 +5272,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
@@ -5320,11 +5284,11 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5375,7 +5339,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5401,10 +5365,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>39</v>
@@ -5414,7 +5378,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5426,11 +5390,11 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5481,7 +5445,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5507,11 +5471,9 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5520,7 +5482,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5529,17 +5491,23 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="K42" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="L42" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5586,15 +5554,11 @@
       <c r="AD42" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE42" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG42" s="2"/>
       <c r="AH42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5602,22 +5566,20 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5635,17 +5597,23 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="L43" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5692,15 +5660,11 @@
       <c r="AD43" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5708,22 +5672,20 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>39</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5744,11 +5706,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="L44" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5798,15 +5762,11 @@
       <c r="AD44" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5814,7 +5774,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -5825,11 +5785,9 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>39</v>
       </c>
@@ -5850,11 +5808,13 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="L45" t="s" s="2">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5904,15 +5864,11 @@
       <c r="AD45" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
@@ -5920,7 +5876,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -5931,11 +5887,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -5951,23 +5907,21 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6026,54 +5980,52 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>264</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6132,18 +6084,18 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>271</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6154,7 +6106,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
@@ -6166,13 +6118,13 @@
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6234,7 +6186,7 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6245,7 +6197,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6268,13 +6220,13 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>58</v>
+        <v>273</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6301,13 +6253,13 @@
         <v>39</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -6336,7 +6288,7 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -6351,7 +6303,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6370,17 +6322,15 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>63</v>
+        <v>278</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>64</v>
+        <v>279</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6440,22 +6390,22 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>39</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6468,23 +6418,21 @@
         <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>284</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6544,7 +6492,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -6555,7 +6503,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6578,13 +6526,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6646,7 +6594,7 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>282</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
@@ -6657,18 +6605,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -6680,15 +6628,17 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -6713,13 +6663,13 @@
         <v>39</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>287</v>
+        <v>39</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -6748,7 +6698,7 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
@@ -6759,11 +6709,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -6776,21 +6726,23 @@
         <v>39</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>290</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -6850,18 +6802,18 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>293</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6881,16 +6833,16 @@
         <v>39</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6952,18 +6904,18 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>297</v>
+        <v>142</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>39</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6986,13 +6938,13 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>59</v>
+        <v>296</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7054,7 +7006,7 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
@@ -7065,18 +7017,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>39</v>
@@ -7088,17 +7040,15 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7123,13 +7073,13 @@
         <v>39</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7158,51 +7108,49 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>39</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7262,18 +7210,18 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>39</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7284,7 +7232,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
@@ -7293,16 +7241,16 @@
         <v>39</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7364,18 +7312,18 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7398,13 +7346,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7431,13 +7379,13 @@
         <v>39</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7466,425 +7414,17 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE61" s="2"/>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" s="2"/>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE62" s="2"/>
-      <c r="AF62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG62" s="2"/>
-      <c r="AH62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K63" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE63" s="2"/>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" s="2"/>
-      <c r="AH63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE64" s="2"/>
-      <c r="AF64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG64" s="2"/>
-      <c r="AH64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL64">
+  <autoFilter ref="A1:AL60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7894,7 +7434,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
